--- a/Rtest-46.xlsx
+++ b/Rtest-46.xlsx
@@ -164,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +218,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -245,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -283,11 +299,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF0094FF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0094FF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0094FF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0094FF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -311,7 +349,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -321,7 +365,87 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFF4B084"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF0000FF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF0000FF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF0000FF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF0000FF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF0094FF"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF0094FF"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF0094FF"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -888,22 +1012,22 @@
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="10" t="s">
         <v>40</v>
       </c>
       <c r="M16" s="7" t="s">
@@ -916,22 +1040,22 @@
       <c r="R16" s="7"/>
     </row>
     <row r="17" spans="3:18">
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="10" t="s">
         <v>41</v>
       </c>
       <c r="M17" s="7" t="s">
@@ -948,36 +1072,36 @@
       <c r="R17" s="7"/>
     </row>
     <row r="18" spans="3:18">
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="10" t="s">
         <v>39</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="9" t="s">
+      <c r="M18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9" t="s">
+      <c r="N18" s="10"/>
+      <c r="O18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9" t="s">
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R18" s="9"/>
+      <c r="R18" s="10"/>
     </row>
     <row r="19" spans="3:18">
       <c r="F19" s="3" t="s">
@@ -985,50 +1109,50 @@
       </c>
     </row>
     <row r="20" spans="3:18">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" spans="3:18">
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="3:18">
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="3:18">
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -1055,6 +1179,26 @@
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="C20:K23"/>
   </mergeCells>
+  <conditionalFormatting sqref="B10:G13">
+    <cfRule type="notContainsErrors" dxfId="1" priority="2">
+      <formula>NOT(ISERROR(B10))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="notContainsErrors" dxfId="3" priority="4">
+      <formula>NOT(ISERROR(B16))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="notContainsErrors" dxfId="2" priority="3">
+      <formula>NOT(ISERROR(C16))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:P13">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(G10))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Rtest-46.xlsx
+++ b/Rtest-46.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>PESO MEXICANO</t>
   </si>
@@ -64,6 +64,15 @@
     <t>Pago3</t>
   </si>
   <si>
+    <t>Nombre del capturista</t>
+  </si>
+  <si>
+    <t>Nombre del gerente</t>
+  </si>
+  <si>
+    <t>Nombre del administrador</t>
+  </si>
+  <si>
     <t>VERIFICACION DEL COBRO</t>
   </si>
   <si>
@@ -119,6 +128,9 @@
   </si>
   <si>
     <t>Control de Cobros por P.I.</t>
+  </si>
+  <si>
+    <t>NHO-2022</t>
   </si>
   <si>
     <t xml:space="preserve">Totales  </t>
@@ -164,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +246,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00D91A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF00D91A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00D91A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -261,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -314,18 +350,101 @@
       <left style="thin">
         <color rgb="FF0094FF"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF0094FF"/>
+      </right>
       <top style="thin">
         <color rgb="FF0094FF"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF0094FF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0094FF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0094FF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF0094FF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0094FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0094FF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0094FF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0094FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,10 +471,40 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -365,7 +514,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -441,6 +590,53 @@
           <color rgb="FF0094FF"/>
         </top>
         <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF0094FF"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF0094FF"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF0094FF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF0094FF"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -735,7 +931,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:T23"/>
+  <dimension ref="B2:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -744,9 +940,9 @@
     <col min="3" max="20" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:21">
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -756,9 +952,9 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:21">
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -768,9 +964,9 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:21">
       <c r="G4" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -779,13 +975,13 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="T4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20">
+      <c r="U4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21">
       <c r="G5" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -794,35 +990,41 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:20">
+      <c r="S5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
       <c r="N6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="S6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21">
       <c r="N7" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="S7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21">
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -847,24 +1049,24 @@
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:21">
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -888,16 +1090,16 @@
         <v>12</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21">
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -922,8 +1124,17 @@
       <c r="O10">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="2:20">
+      <c r="P10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
@@ -966,8 +1177,17 @@
       <c r="O11">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="2:20">
+      <c r="P11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1010,149 +1230,195 @@
       <c r="O12">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="2:20">
-      <c r="D16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="P12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" ht="5" customHeight="1"/>
+    <row r="15" spans="2:21">
+      <c r="D15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="D16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="10" t="s">
+      <c r="E16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="15" t="s">
         <v>40</v>
       </c>
+      <c r="K16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="M16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="2:19">
+      <c r="D17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-    </row>
-    <row r="17" spans="3:18">
-      <c r="D17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="R17" s="7"/>
-    </row>
-    <row r="18" spans="3:18">
-      <c r="D18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="R18" s="10"/>
-    </row>
-    <row r="19" spans="3:18">
+      <c r="R17" s="21"/>
+    </row>
+    <row r="19" spans="2:19">
       <c r="F19" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="3:18">
-      <c r="C20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="3:18">
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="3:18">
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="3:18">
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19">
+      <c r="B20" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+    </row>
+    <row r="21" spans="2:19">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+    </row>
+    <row r="22" spans="2:19">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+    </row>
+    <row r="23" spans="2:19">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -1170,31 +1436,55 @@
     <mergeCell ref="G3:N3"/>
     <mergeCell ref="G4:N4"/>
     <mergeCell ref="G5:N5"/>
-    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="C20:K23"/>
+    <mergeCell ref="B20:S23"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:G13">
     <cfRule type="notContainsErrors" dxfId="1" priority="2">
       <formula>NOT(ISERROR(B10))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="notContainsErrors" dxfId="3" priority="4">
+      <formula>NOT(ISERROR(B15))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="notContainsErrors" dxfId="3" priority="4">
+    <cfRule type="notContainsErrors" dxfId="4" priority="5">
+      <formula>NOT(ISERROR(B16))</formula>
+    </cfRule>
+    <cfRule type="notContainsErrors" dxfId="4" priority="8">
       <formula>NOT(ISERROR(B16))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="notContainsErrors" dxfId="2" priority="3">
-      <formula>NOT(ISERROR(C16))</formula>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="notContainsErrors" dxfId="5" priority="6">
+      <formula>NOT(ISERROR(B17))</formula>
+    </cfRule>
+    <cfRule type="notContainsErrors" dxfId="5" priority="9">
+      <formula>NOT(ISERROR(B17))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:P13">
+  <conditionalFormatting sqref="C15">
+    <cfRule type="notContainsErrors" dxfId="2" priority="3">
+      <formula>NOT(ISERROR(C15))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="notContainsErrors" dxfId="6" priority="7">
+      <formula>NOT(ISERROR(C17))</formula>
+    </cfRule>
+    <cfRule type="notContainsErrors" dxfId="6" priority="10">
+      <formula>NOT(ISERROR(C17))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:R13">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(G10))</formula>
     </cfRule>
